--- a/VR MENSAL 05.2025.xlsx
+++ b/VR MENSAL 05.2025.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Relatório_VRVA" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Custos" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Relatorio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Custos totais" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
